--- a/data/trans_orig/P22_R4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P22_R4-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>40518</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29176</v>
+        <v>29115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53571</v>
+        <v>56066</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08216331456903114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05916319297493788</v>
+        <v>0.05904138028621372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1086321004073771</v>
+        <v>0.113693459709911</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -765,19 +765,19 @@
         <v>45736</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34081</v>
+        <v>33653</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60192</v>
+        <v>59135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09783420255763219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07290214679928754</v>
+        <v>0.07198641676343878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1287552659900256</v>
+        <v>0.1264951421183667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -786,19 +786,19 @@
         <v>86254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>69461</v>
+        <v>68729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105321</v>
+        <v>105763</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08978956319310301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07230778267195848</v>
+        <v>0.07154651808006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1096378075262348</v>
+        <v>0.1100982951273225</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>452619</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>439566</v>
+        <v>437071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>463961</v>
+        <v>464022</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9178366854309689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.891367899592623</v>
+        <v>0.8863065402900889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9408368070250623</v>
+        <v>0.9409586197137865</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>443</v>
@@ -836,19 +836,19 @@
         <v>421753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>407297</v>
+        <v>408354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>433408</v>
+        <v>433836</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9021657974423678</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8712447340099746</v>
+        <v>0.8735048578816332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9270978532007125</v>
+        <v>0.9280135832365612</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>901</v>
@@ -857,19 +857,19 @@
         <v>874372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>855305</v>
+        <v>854863</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>891165</v>
+        <v>891897</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9102104368068969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8903621924737652</v>
+        <v>0.8899017048726775</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9276922173280416</v>
+        <v>0.92845348191994</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>74139</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57379</v>
+        <v>58345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91268</v>
+        <v>92194</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1011475185839078</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07828201084174953</v>
+        <v>0.0795992418253276</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1245157738056679</v>
+        <v>0.1257787276959576</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -982,19 +982,19 @@
         <v>72523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57649</v>
+        <v>58055</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90861</v>
+        <v>89597</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.115945757645416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09216551632362584</v>
+        <v>0.09281422781909775</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.145263017064338</v>
+        <v>0.1432414386784446</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -1003,19 +1003,19 @@
         <v>146663</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124998</v>
+        <v>124855</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171094</v>
+        <v>172695</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1079611881784992</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09201373451360681</v>
+        <v>0.09190786227334907</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1259456102557353</v>
+        <v>0.1271243049630281</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>658843</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>641714</v>
+        <v>640788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>675603</v>
+        <v>674637</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8988524814160922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.875484226194332</v>
+        <v>0.8742212723040423</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.92171798915825</v>
+        <v>0.9204007581746724</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>522</v>
@@ -1053,19 +1053,19 @@
         <v>552971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>534633</v>
+        <v>535897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>567845</v>
+        <v>567439</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.884054242354584</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8547369829356619</v>
+        <v>0.8567585613215557</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9078344836763741</v>
+        <v>0.9071857721809022</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1152</v>
@@ -1074,19 +1074,19 @@
         <v>1211813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1187382</v>
+        <v>1185781</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1233478</v>
+        <v>1233621</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8920388118215008</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8740543897442642</v>
+        <v>0.8728756950369716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9079862654863932</v>
+        <v>0.908092137726651</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>86854</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70756</v>
+        <v>70529</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106014</v>
+        <v>106359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1359930946827968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1107871267591758</v>
+        <v>0.1104314514963789</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1659928523959003</v>
+        <v>0.1665321503484596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1199,19 +1199,19 @@
         <v>67014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51023</v>
+        <v>52196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82677</v>
+        <v>83462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0971579209090245</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07397338012257149</v>
+        <v>0.07567413420526195</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1198662150990452</v>
+        <v>0.1210038678049408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>149</v>
@@ -1220,19 +1220,19 @@
         <v>153869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132837</v>
+        <v>132019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179347</v>
+        <v>179817</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1158289127470264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09999655370101471</v>
+        <v>0.09938105349576758</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1350086707263954</v>
+        <v>0.1353623870661061</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>551814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>532654</v>
+        <v>532309</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>567912</v>
+        <v>568139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8640069053172031</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8340071476040997</v>
+        <v>0.8334678496515407</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8892128732408242</v>
+        <v>0.8895685485036212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>596</v>
@@ -1270,19 +1270,19 @@
         <v>622730</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>607067</v>
+        <v>606282</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>638721</v>
+        <v>637548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9028420790909755</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8801337849009548</v>
+        <v>0.8789961321950592</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9260266198774284</v>
+        <v>0.9243258657947381</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1122</v>
@@ -1291,19 +1291,19 @@
         <v>1174543</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1149065</v>
+        <v>1148595</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1195575</v>
+        <v>1196393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8841710872529736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8649913292736047</v>
+        <v>0.864637612933894</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9000034462989854</v>
+        <v>0.9006189465042325</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>71836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56030</v>
+        <v>56274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87891</v>
+        <v>87868</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1386768147923229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1081635002811856</v>
+        <v>0.1086333898090949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1696688571944412</v>
+        <v>0.1696252377255718</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1416,19 +1416,19 @@
         <v>49615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36914</v>
+        <v>37343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63656</v>
+        <v>65431</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09643993880142619</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07175220037993206</v>
+        <v>0.07258656885236346</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.123733613836443</v>
+        <v>0.1271831072902244</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -1437,19 +1437,19 @@
         <v>121451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>101310</v>
+        <v>100393</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142088</v>
+        <v>144052</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1176310109135177</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09812374968388453</v>
+        <v>0.09723511443781092</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1376185548015426</v>
+        <v>0.1395210590629709</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>446177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430122</v>
+        <v>430145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>461983</v>
+        <v>461739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8613231852076771</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8303311428055588</v>
+        <v>0.8303747622744282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8918364997188144</v>
+        <v>0.8913666101909051</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>454</v>
@@ -1487,19 +1487,19 @@
         <v>464847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450806</v>
+        <v>449031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>477548</v>
+        <v>477119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9035600611985738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.876266386163557</v>
+        <v>0.8728168927097756</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.928247799620068</v>
+        <v>0.9274134311476365</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>869</v>
@@ -1508,19 +1508,19 @@
         <v>911023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>890386</v>
+        <v>888422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>931164</v>
+        <v>932081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8823689890864823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8623814451984576</v>
+        <v>0.8604789409370289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9018762503161154</v>
+        <v>0.902764885562189</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>44655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33457</v>
+        <v>32294</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59642</v>
+        <v>57675</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1154749113990048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08651676367180684</v>
+        <v>0.08351034822791654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1542290419091603</v>
+        <v>0.149141995647965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>51</v>
@@ -1633,19 +1633,19 @@
         <v>52800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40921</v>
+        <v>41198</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68554</v>
+        <v>67795</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1309732630572072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1015053015462483</v>
+        <v>0.1021928989132267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1700516016745995</v>
+        <v>0.1681673290866903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -1654,19 +1654,19 @@
         <v>97456</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78699</v>
+        <v>79907</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115825</v>
+        <v>116899</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.123385267390986</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09963765326995151</v>
+        <v>0.1011679942252052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1466422020586235</v>
+        <v>0.1480017501419768</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>342055</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327068</v>
+        <v>329035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353253</v>
+        <v>354416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8845250886009952</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8457709580908396</v>
+        <v>0.850858004352035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9134832363281932</v>
+        <v>0.9164896517720834</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>344</v>
@@ -1704,19 +1704,19 @@
         <v>350339</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>334585</v>
+        <v>335344</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>362218</v>
+        <v>361941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8690267369427929</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8299483983254005</v>
+        <v>0.8318326709133097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8984946984537517</v>
+        <v>0.8978071010867733</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>693</v>
@@ -1725,19 +1725,19 @@
         <v>692393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>674024</v>
+        <v>672950</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>711150</v>
+        <v>709942</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8766147326090139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8533577979413766</v>
+        <v>0.8519982498580232</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9003623467300486</v>
+        <v>0.8988320057747947</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>18285</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11274</v>
+        <v>11650</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>27468</v>
+        <v>27897</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06249647495492659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03853318824098594</v>
+        <v>0.03981779485798291</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09388230634308629</v>
+        <v>0.09534830585906751</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -1850,19 +1850,19 @@
         <v>23957</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16317</v>
+        <v>16140</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35757</v>
+        <v>33749</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06985943037607389</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0475794034857097</v>
+        <v>0.04706299646708861</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1042677078681095</v>
+        <v>0.09841113676728094</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1871,19 +1871,19 @@
         <v>42243</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31457</v>
+        <v>31367</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55385</v>
+        <v>56151</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0664696302760138</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04949893091829591</v>
+        <v>0.04935611409622091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08714911680663884</v>
+        <v>0.08835495307822269</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>274298</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265115</v>
+        <v>264686</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>281309</v>
+        <v>280933</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9375035250450734</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9061176936569137</v>
+        <v>0.9046516941409325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9614668117590141</v>
+        <v>0.9601822051420171</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>346</v>
@@ -1921,19 +1921,19 @@
         <v>318977</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>307177</v>
+        <v>309185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>326617</v>
+        <v>326794</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9301405696239261</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8957322921318892</v>
+        <v>0.9015888632327194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9524205965142898</v>
+        <v>0.9529370035329117</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>630</v>
@@ -1942,19 +1942,19 @@
         <v>593274</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>580132</v>
+        <v>579366</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>604060</v>
+        <v>604150</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9335303697239862</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9128508831933612</v>
+        <v>0.9116450469217774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9505010690817042</v>
+        <v>0.9506438859037791</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>10105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5304</v>
+        <v>5075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18437</v>
+        <v>17953</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04857045245354816</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02549242682038948</v>
+        <v>0.02439228147399401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08861897903631893</v>
+        <v>0.0862968472642713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2067,19 +2067,19 @@
         <v>10026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4694</v>
+        <v>4535</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18398</v>
+        <v>18243</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03002769511932769</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01405646193881283</v>
+        <v>0.0135802285593276</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05509963087097155</v>
+        <v>0.05463523058770448</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -2088,19 +2088,19 @@
         <v>20131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12244</v>
+        <v>12322</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29873</v>
+        <v>31743</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03714584214012618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0225930835050409</v>
+        <v>0.02273678228129709</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05512179036652807</v>
+        <v>0.05857205574923488</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>197938</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>189606</v>
+        <v>190090</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>202739</v>
+        <v>202968</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9514295475464518</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9113810209636813</v>
+        <v>0.9137031527357287</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9745075731796106</v>
+        <v>0.975607718526006</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>281</v>
@@ -2138,19 +2138,19 @@
         <v>323882</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>315510</v>
+        <v>315665</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>329214</v>
+        <v>329373</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9699723048806723</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9449003691290289</v>
+        <v>0.9453647694122945</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9859435380611873</v>
+        <v>0.9864197714406724</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>489</v>
@@ -2159,19 +2159,19 @@
         <v>521820</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>512078</v>
+        <v>510208</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>529707</v>
+        <v>529629</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9628541578598738</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9448782096334718</v>
+        <v>0.9414279442507654</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.977406916494959</v>
+        <v>0.9772632177187029</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>346393</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1059262875168363</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>309</v>
@@ -2284,19 +2284,19 @@
         <v>321673</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09524916965129535</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>647</v>
@@ -2305,19 +2305,19 @@
         <v>668066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1005017672187822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2923742</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2887315</v>
+        <v>2888833</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2958214</v>
+        <v>2957232</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8940737124831637</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.882934412123113</v>
+        <v>0.8833986824589677</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9046152103530085</v>
+        <v>0.9043149887590172</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2986</v>
@@ -2355,19 +2355,19 @@
         <v>3055497</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3018541</v>
+        <v>3021398</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3088166</v>
+        <v>3089956</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9047508303487046</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8938078628096006</v>
+        <v>0.8946538367794621</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9144242280935928</v>
+        <v>0.9149541113433814</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5856</v>
@@ -2376,19 +2376,19 @@
         <v>5979238</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5926081</v>
+        <v>5926870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6025584</v>
+        <v>6029587</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8994982327812178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8915014109208563</v>
+        <v>0.8916200667232724</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9064703715896233</v>
+        <v>0.9070726215153936</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>25216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16418</v>
+        <v>16389</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36003</v>
+        <v>36873</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05564311064536791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03622949138547452</v>
+        <v>0.03616627273803057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07944810082673846</v>
+        <v>0.0813677224908641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -2744,19 +2744,19 @@
         <v>28909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19647</v>
+        <v>19643</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40377</v>
+        <v>40116</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06719392570642041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04566580921831533</v>
+        <v>0.04565665243500689</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09385087527801481</v>
+        <v>0.09324397579001538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2765,19 +2765,19 @@
         <v>54124</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40683</v>
+        <v>41464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71185</v>
+        <v>70487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06126857478239967</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04605255374660382</v>
+        <v>0.04693709927201907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08058077736368791</v>
+        <v>0.07979079641696474</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>427949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417162</v>
+        <v>416292</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436747</v>
+        <v>436776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9443568893546321</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9205518991732615</v>
+        <v>0.9186322775091359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9637705086145254</v>
+        <v>0.9638337272619694</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>392</v>
@@ -2815,19 +2815,19 @@
         <v>401321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>389853</v>
+        <v>390114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>410583</v>
+        <v>410587</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9328060742935796</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9061491247219849</v>
+        <v>0.9067560242099846</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9543341907816846</v>
+        <v>0.9543433475649932</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>813</v>
@@ -2836,19 +2836,19 @@
         <v>829271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>812210</v>
+        <v>812908</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>842712</v>
+        <v>841931</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9387314252176003</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9194192226363126</v>
+        <v>0.9202092035830354</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9539474462533962</v>
+        <v>0.9530629007279809</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>75896</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>61080</v>
+        <v>61510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>96457</v>
+        <v>94858</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1104608525754117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08889736745257194</v>
+        <v>0.08952254303954957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1403851665621107</v>
+        <v>0.1380576379842286</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -2961,19 +2961,19 @@
         <v>53435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41140</v>
+        <v>40873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69764</v>
+        <v>69744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0875618002563741</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06741521797380522</v>
+        <v>0.06697749179346719</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.114319255961519</v>
+        <v>0.1142867581730054</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>123</v>
@@ -2982,19 +2982,19 @@
         <v>129331</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>108907</v>
+        <v>108562</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151856</v>
+        <v>152706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09968939393116012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08394596541482401</v>
+        <v>0.08368068339792417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1170515729189537</v>
+        <v>0.1177065940478544</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>611191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>590630</v>
+        <v>592229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>626007</v>
+        <v>625577</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8895391474245884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8596148334378894</v>
+        <v>0.8619423620157713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9111026325474281</v>
+        <v>0.9104774569604505</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>520</v>
@@ -3032,19 +3032,19 @@
         <v>556820</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>540491</v>
+        <v>540511</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>569115</v>
+        <v>569382</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9124381997436259</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8856807440384803</v>
+        <v>0.8857132418269945</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9325847820261944</v>
+        <v>0.9330225082065328</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1115</v>
@@ -3053,19 +3053,19 @@
         <v>1168011</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1145486</v>
+        <v>1144636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1188435</v>
+        <v>1188780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9003106060688398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8829484270810464</v>
+        <v>0.8822934059521457</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.916054034585176</v>
+        <v>0.9163193166020759</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>85380</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70150</v>
+        <v>68511</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106897</v>
+        <v>105465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1252161165284049</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1028806067453827</v>
+        <v>0.1004755802619442</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1567722661652203</v>
+        <v>0.1546721274061526</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -3178,19 +3178,19 @@
         <v>60858</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46580</v>
+        <v>46302</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78725</v>
+        <v>78255</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08561247221789363</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06552669815467199</v>
+        <v>0.06513573268616336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1107477669347296</v>
+        <v>0.1100866310266741</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -3199,19 +3199,19 @@
         <v>146238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124008</v>
+        <v>123692</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>174204</v>
+        <v>170133</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1050021522923475</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08904062072800802</v>
+        <v>0.08881400804549065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1250825123397634</v>
+        <v>0.1221596847658429</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>596483</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>574966</v>
+        <v>576398</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>611713</v>
+        <v>613352</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8747838834715951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8432277338347797</v>
+        <v>0.8453278725938479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8971193932546172</v>
+        <v>0.8995244197380559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -3249,19 +3249,19 @@
         <v>649992</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>632125</v>
+        <v>632595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>664270</v>
+        <v>664548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9143875277821064</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8892522330652703</v>
+        <v>0.889913368973326</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9344733018453278</v>
+        <v>0.9348642673138372</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1185</v>
@@ -3270,19 +3270,19 @@
         <v>1246474</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1218508</v>
+        <v>1222579</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1268704</v>
+        <v>1269020</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8949978477076524</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8749174876602374</v>
+        <v>0.8778403152341574</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9109593792719923</v>
+        <v>0.9111859919545093</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>61732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45162</v>
+        <v>47117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>80028</v>
+        <v>81971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1004402016509797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07347939783592659</v>
+        <v>0.07666047461367646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1302074813199435</v>
+        <v>0.1333692586803444</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -3395,19 +3395,19 @@
         <v>65381</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50245</v>
+        <v>49531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85414</v>
+        <v>83544</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.106104111329984</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08154055954020642</v>
+        <v>0.08038140821760092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1386136704647526</v>
+        <v>0.1355791861112567</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -3416,19 +3416,19 @@
         <v>127114</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105930</v>
+        <v>106347</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154898</v>
+        <v>153091</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1032757974451799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08606495941671925</v>
+        <v>0.08640341368254191</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1258500593086904</v>
+        <v>0.1243819023874724</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>552885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>534589</v>
+        <v>532646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>569455</v>
+        <v>567500</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8995597983490203</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8697925186800567</v>
+        <v>0.8666307413196557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9265206021640735</v>
+        <v>0.9233395253863235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>485</v>
@@ -3466,19 +3466,19 @@
         <v>550818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>530785</v>
+        <v>532655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>565954</v>
+        <v>566668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.893895888670016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8613863295352474</v>
+        <v>0.8644208138887434</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9184594404597936</v>
+        <v>0.9196185917823991</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>983</v>
@@ -3487,19 +3487,19 @@
         <v>1103702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1075918</v>
+        <v>1077725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1124886</v>
+        <v>1124469</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8967242025548201</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8741499406913099</v>
+        <v>0.8756180976125276</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.913935040583281</v>
+        <v>0.9135965863174583</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>34552</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23470</v>
+        <v>24248</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>49092</v>
+        <v>51463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08046128864644188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05465415843329872</v>
+        <v>0.05646614429680607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1143202945190701</v>
+        <v>0.1198397474008682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -3612,19 +3612,19 @@
         <v>31426</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20257</v>
+        <v>21631</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43827</v>
+        <v>46597</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07017911266196519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04523769590607837</v>
+        <v>0.0483054954444951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09787120133559704</v>
+        <v>0.1040565376103371</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -3633,19 +3633,19 @@
         <v>65979</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50795</v>
+        <v>49997</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85097</v>
+        <v>85198</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07521253653462043</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05790435184981353</v>
+        <v>0.05699432255125245</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09700685998079304</v>
+        <v>0.09712194529346245</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>394877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>380337</v>
+        <v>377966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>405959</v>
+        <v>405181</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9195387113535581</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8856797054809299</v>
+        <v>0.8801602525991318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9453458415667012</v>
+        <v>0.9435338557031939</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>380</v>
@@ -3683,19 +3683,19 @@
         <v>416374</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>403973</v>
+        <v>401203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>427543</v>
+        <v>426169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9298208873380348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9021287986644029</v>
+        <v>0.895943462389663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9547623040939215</v>
+        <v>0.951694504555505</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>744</v>
@@ -3704,19 +3704,19 @@
         <v>811250</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>792132</v>
+        <v>792031</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>826434</v>
+        <v>827232</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9247874634653795</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9029931400192071</v>
+        <v>0.9028780547065375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9420956481501864</v>
+        <v>0.9430056774487475</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>24426</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15221</v>
+        <v>15429</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36440</v>
+        <v>39873</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07884641621286481</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04913473695744443</v>
+        <v>0.04980634611000308</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.117630883411232</v>
+        <v>0.1287101346145489</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -3829,19 +3829,19 @@
         <v>16265</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9734</v>
+        <v>10129</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26813</v>
+        <v>26319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04594823417548173</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02749802755414599</v>
+        <v>0.02861301492373924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07574266504795182</v>
+        <v>0.07434848120244554</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -3850,19 +3850,19 @@
         <v>40691</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29347</v>
+        <v>27410</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56161</v>
+        <v>55146</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06130176804516581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04421199403809244</v>
+        <v>0.0412934765230748</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08460693149242969</v>
+        <v>0.0830782530287399</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>285360</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>273346</v>
+        <v>269913</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>294565</v>
+        <v>294357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9211535837871352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8823691165887679</v>
+        <v>0.8712898653854512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9508652630425554</v>
+        <v>0.9501936538899971</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>329</v>
@@ -3900,19 +3900,19 @@
         <v>337731</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>327183</v>
+        <v>327677</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>344262</v>
+        <v>343867</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9540517658245182</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9242573349520481</v>
+        <v>0.9256515187975545</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.972501972445854</v>
+        <v>0.9713869850762608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>591</v>
@@ -3921,19 +3921,19 @@
         <v>623091</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>607621</v>
+        <v>608636</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>634435</v>
+        <v>636372</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9386982319548342</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9153930685075699</v>
+        <v>0.9169217469712598</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9557880059619071</v>
+        <v>0.958706523476925</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>9449</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4132</v>
+        <v>4288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>19778</v>
+        <v>19167</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03782038621315683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01653653935292598</v>
+        <v>0.0171631695711003</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07915908018307434</v>
+        <v>0.07671558945536404</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4046,19 +4046,19 @@
         <v>15705</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8724</v>
+        <v>8984</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25379</v>
+        <v>26162</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04037617852822944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02242791945301508</v>
+        <v>0.02309519935582494</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06524435343417624</v>
+        <v>0.06725855102987163</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4067,19 +4067,19 @@
         <v>25155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15864</v>
+        <v>15637</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38001</v>
+        <v>37725</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03937659015573158</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02483281952773024</v>
+        <v>0.02447823830651242</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05948548289762566</v>
+        <v>0.059053745164898</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>240402</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230073</v>
+        <v>230684</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245719</v>
+        <v>245563</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9621796137868431</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9208409198169253</v>
+        <v>0.9232844105446362</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.983463460647074</v>
+        <v>0.9828368304288997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>337</v>
@@ -4117,19 +4117,19 @@
         <v>373274</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>363600</v>
+        <v>362817</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>380255</v>
+        <v>379995</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9596238214717706</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9347556465658239</v>
+        <v>0.9327414489701283</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9775720805469849</v>
+        <v>0.9769048006441753</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>551</v>
@@ -4138,19 +4138,19 @@
         <v>613675</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>600829</v>
+        <v>601105</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>622966</v>
+        <v>623193</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9606234098442684</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9405145171023745</v>
+        <v>0.9409462548351021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9751671804722698</v>
+        <v>0.9755217616934879</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>316652</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>281815</v>
+        <v>283487</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>353790</v>
+        <v>354741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09243148378198994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08226267404318849</v>
+        <v>0.08275056278488034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1032721611484851</v>
+        <v>0.103549767822378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>242</v>
@@ -4263,19 +4263,19 @@
         <v>271980</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>239730</v>
+        <v>237580</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305989</v>
+        <v>305581</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07643516244419479</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06737197292218709</v>
+        <v>0.06676762116171463</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0859927318395657</v>
+        <v>0.08587802526354722</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>524</v>
@@ -4284,19 +4284,19 @@
         <v>588632</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>539266</v>
+        <v>545083</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>638505</v>
+        <v>643354</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08428157162442802</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07721331754559801</v>
+        <v>0.07804620338960376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09142253765261725</v>
+        <v>0.09211685255418939</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3109146</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3072008</v>
+        <v>3071057</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3143983</v>
+        <v>3142311</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.90756851621801</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8967278388515157</v>
+        <v>0.896450232177622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9177373259568122</v>
+        <v>0.9172494372151195</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3056</v>
@@ -4334,19 +4334,19 @@
         <v>3286329</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3252320</v>
+        <v>3252728</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3318579</v>
+        <v>3320729</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9235648375558052</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9140072681604342</v>
+        <v>0.9141219747364527</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9326280270778129</v>
+        <v>0.9332323788382852</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5982</v>
@@ -4355,19 +4355,19 @@
         <v>6395475</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6345602</v>
+        <v>6340753</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6444841</v>
+        <v>6439024</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9157184283755719</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9085774623473828</v>
+        <v>0.9078831474458107</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9227866824544024</v>
+        <v>0.9219537966103962</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>31683</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20989</v>
+        <v>21246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43918</v>
+        <v>44863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07586545736021436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05025970637785282</v>
+        <v>0.05087562274611821</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1051629840187055</v>
+        <v>0.1074256938980641</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4723,19 +4723,19 @@
         <v>20488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12576</v>
+        <v>13173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30184</v>
+        <v>32430</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05176892889733258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03177619164810421</v>
+        <v>0.03328679988315211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07626951757808105</v>
+        <v>0.08194440092674213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -4744,19 +4744,19 @@
         <v>52170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39470</v>
+        <v>38464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67736</v>
+        <v>66421</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06414102035971617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04852684135394601</v>
+        <v>0.04729004442968683</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08327758223808009</v>
+        <v>0.08166135903272298</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>385933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>373698</v>
+        <v>372753</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396627</v>
+        <v>396370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9241345426397857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8948370159812937</v>
+        <v>0.8925743061019359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9497402936221468</v>
+        <v>0.9491243772538818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>383</v>
@@ -4794,19 +4794,19 @@
         <v>375267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>365571</v>
+        <v>363325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>383179</v>
+        <v>382582</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9482310711026675</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9237304824219186</v>
+        <v>0.9180555990732581</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9682238083518958</v>
+        <v>0.9667132001168489</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>746</v>
@@ -4815,19 +4815,19 @@
         <v>761201</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>745635</v>
+        <v>746950</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>773901</v>
+        <v>774907</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9358589796402839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9167224177619198</v>
+        <v>0.918338640967277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.951473158646054</v>
+        <v>0.9527099555703131</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>42979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30948</v>
+        <v>31000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56398</v>
+        <v>57128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0727841543834091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05241066171123744</v>
+        <v>0.0524979514330044</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09550962924689853</v>
+        <v>0.09674496285185656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -4940,19 +4940,19 @@
         <v>63268</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50372</v>
+        <v>49472</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78971</v>
+        <v>79449</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.112638966343747</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08967900122995165</v>
+        <v>0.08807700337780186</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1405960934893028</v>
+        <v>0.1414463815231677</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -4961,19 +4961,19 @@
         <v>106247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87007</v>
+        <v>88305</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128344</v>
+        <v>128749</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09221329138676664</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07551457908068419</v>
+        <v>0.07664175084203156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.111391770336556</v>
+        <v>0.1117433753307462</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>547517</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>534098</v>
+        <v>533368</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>559548</v>
+        <v>559496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9272158456165909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9044903707531016</v>
+        <v>0.9032550371481429</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9475893382887626</v>
+        <v>0.9475020485669953</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>515</v>
@@ -5011,19 +5011,19 @@
         <v>498419</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482716</v>
+        <v>482238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>511315</v>
+        <v>512215</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.887361033656253</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8594039065106972</v>
+        <v>0.8585536184768323</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9103209987700484</v>
+        <v>0.9119229966221981</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1041</v>
@@ -5032,19 +5032,19 @@
         <v>1045936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1023839</v>
+        <v>1023434</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1065176</v>
+        <v>1063878</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9077867086132334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8886082296634439</v>
+        <v>0.8882566246692537</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9244854209193157</v>
+        <v>0.9233582491579684</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>75793</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59414</v>
+        <v>59249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94726</v>
+        <v>94009</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1134343418428704</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08892177506274171</v>
+        <v>0.08867503049750511</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1417706586051792</v>
+        <v>0.1406982172373729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>64</v>
@@ -5157,19 +5157,19 @@
         <v>67109</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51934</v>
+        <v>53014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83794</v>
+        <v>83631</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1014678246363263</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07852247273217529</v>
+        <v>0.08015586606484382</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1266950739479893</v>
+        <v>0.1264480979967609</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -5178,19 +5178,19 @@
         <v>142902</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>121391</v>
+        <v>121538</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167767</v>
+        <v>169436</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1074815762077377</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.091302279935016</v>
+        <v>0.09141305068549901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1261834489920911</v>
+        <v>0.127438699092173</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>592369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>573436</v>
+        <v>574153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>608748</v>
+        <v>608913</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8865656581571295</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.858229341394821</v>
+        <v>0.8593017827626271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9110782249372584</v>
+        <v>0.911324969502495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>601</v>
@@ -5228,19 +5228,19 @@
         <v>594277</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>577592</v>
+        <v>577755</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>609452</v>
+        <v>608372</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8985321753636737</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8733049260520105</v>
+        <v>0.8735519020032393</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9214775272678246</v>
+        <v>0.9198441339351565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1170</v>
@@ -5249,19 +5249,19 @@
         <v>1186646</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1161781</v>
+        <v>1160112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1208157</v>
+        <v>1208010</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8925184237922623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8738165510079091</v>
+        <v>0.8725613009078268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9086977200649842</v>
+        <v>0.9085869493145007</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>60982</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46201</v>
+        <v>47092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77651</v>
+        <v>78815</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0943926629430214</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07151396729377738</v>
+        <v>0.07289191202343154</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.120193753026716</v>
+        <v>0.121995063284146</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -5374,19 +5374,19 @@
         <v>50199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36598</v>
+        <v>38533</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65511</v>
+        <v>65250</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07745641570215779</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05646952654969153</v>
+        <v>0.05945572483413802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1010816563397045</v>
+        <v>0.1006792725826488</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -5395,19 +5395,19 @@
         <v>111182</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>92881</v>
+        <v>92871</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133515</v>
+        <v>135466</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08591112601245854</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07176997005186898</v>
+        <v>0.07176227446402458</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1031684525894076</v>
+        <v>0.1046760939709511</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>585066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>568397</v>
+        <v>567233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>599847</v>
+        <v>598956</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9056073370569786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8798062469732841</v>
+        <v>0.878004936715854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9284860327062228</v>
+        <v>0.9271080879765682</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>554</v>
@@ -5445,19 +5445,19 @@
         <v>597899</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>582587</v>
+        <v>582848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>611500</v>
+        <v>609565</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9225435842978422</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8989183436602962</v>
+        <v>0.8993207274173517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9435304734503085</v>
+        <v>0.940544275165862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1083</v>
@@ -5466,19 +5466,19 @@
         <v>1182965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1160632</v>
+        <v>1158681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1201266</v>
+        <v>1201276</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9140888739875415</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8968315474105923</v>
+        <v>0.8953239060290489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.928230029948131</v>
+        <v>0.9282377255359754</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>37459</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27122</v>
+        <v>27384</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50060</v>
+        <v>51926</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07873028444169204</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05700563962375604</v>
+        <v>0.05755515818370861</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.10521620345105</v>
+        <v>0.1091374732042124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -5591,19 +5591,19 @@
         <v>37803</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26300</v>
+        <v>26289</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52684</v>
+        <v>52263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07608450822728749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0529334473045199</v>
+        <v>0.0529123515715865</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1060363032712815</v>
+        <v>0.1051888312750395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>64</v>
@@ -5612,19 +5612,19 @@
         <v>75261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57898</v>
+        <v>58866</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93882</v>
+        <v>95804</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07737874872465392</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05952733845681573</v>
+        <v>0.06052219806500292</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09652330528837549</v>
+        <v>0.09849990545604</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>438327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>425726</v>
+        <v>423860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>448664</v>
+        <v>448402</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9212697155583079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8947837965489498</v>
+        <v>0.8908625267957875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9429943603762437</v>
+        <v>0.9424448418162912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>403</v>
@@ -5662,19 +5662,19 @@
         <v>459046</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>444165</v>
+        <v>444586</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>470549</v>
+        <v>470560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9239154917727125</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8939636967287183</v>
+        <v>0.8948111687249604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9470665526954801</v>
+        <v>0.9470876484284133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>791</v>
@@ -5683,19 +5683,19 @@
         <v>897374</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>878753</v>
+        <v>876831</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>914737</v>
+        <v>913769</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9226212512753461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9034766947116244</v>
+        <v>0.90150009454396</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9404726615431842</v>
+        <v>0.9394778019349971</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>18493</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11078</v>
+        <v>10872</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28308</v>
+        <v>29089</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0553144779153443</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03313465149968969</v>
+        <v>0.03251852884484287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08467004360707971</v>
+        <v>0.0870062471802652</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -5808,19 +5808,19 @@
         <v>23059</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14790</v>
+        <v>14376</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34621</v>
+        <v>33183</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06131710298731084</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03932822211840795</v>
+        <v>0.0382269819607334</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09206080998865292</v>
+        <v>0.0882368706727536</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -5829,19 +5829,19 @@
         <v>41552</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30174</v>
+        <v>29210</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56965</v>
+        <v>56144</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05849210970728999</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04247487554064001</v>
+        <v>0.0411181700484571</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08018858191521581</v>
+        <v>0.07903211282321769</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>315837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>306022</v>
+        <v>305241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>323252</v>
+        <v>323458</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9446855220846557</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.91532995639292</v>
+        <v>0.9129937528197348</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9668653485003101</v>
+        <v>0.9674814711551571</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>333</v>
@@ -5879,19 +5879,19 @@
         <v>353005</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>341443</v>
+        <v>342881</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361274</v>
+        <v>361688</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9386828970126891</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9079391900113472</v>
+        <v>0.9117631293272462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9606717778815922</v>
+        <v>0.9617730180392665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>641</v>
@@ -5900,19 +5900,19 @@
         <v>668842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>653429</v>
+        <v>654250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>680220</v>
+        <v>681184</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.94150789029271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9198114180847844</v>
+        <v>0.9209678871767824</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.95752512445936</v>
+        <v>0.9588818299515429</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>11188</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6018</v>
+        <v>6227</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18973</v>
+        <v>17996</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04353367525397087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02341679302397024</v>
+        <v>0.02422823010944898</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07382422121452906</v>
+        <v>0.07002331299095145</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6025,19 +6025,19 @@
         <v>12239</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5294</v>
+        <v>5540</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22457</v>
+        <v>24222</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0306828286110784</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01327255224948232</v>
+        <v>0.01388717369246369</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05629854593152431</v>
+        <v>0.06072139656122763</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -6046,19 +6046,19 @@
         <v>23427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14515</v>
+        <v>13893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36990</v>
+        <v>35688</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03571814253648424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02212947085999777</v>
+        <v>0.0211811911705457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05639591598171642</v>
+        <v>0.05441147441189904</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>245810</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238025</v>
+        <v>239002</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250980</v>
+        <v>250771</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9564663247460291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9261757787854709</v>
+        <v>0.9299766870090487</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9765832069760296</v>
+        <v>0.975771769890551</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>292</v>
@@ -6096,19 +6096,19 @@
         <v>386659</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>376441</v>
+        <v>374676</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>393604</v>
+        <v>393358</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9693171713889216</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9437014540684755</v>
+        <v>0.9392786034387722</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9867274477505176</v>
+        <v>0.9861128263075363</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>581</v>
@@ -6117,19 +6117,19 @@
         <v>632469</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>618906</v>
+        <v>620208</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>641381</v>
+        <v>642003</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9642818574635158</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9436040840182834</v>
+        <v>0.9455885255881012</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9778705291400022</v>
+        <v>0.9788188088294544</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>278576</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>245921</v>
+        <v>245371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>312343</v>
+        <v>313630</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0821895478111971</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07255513091758289</v>
+        <v>0.07239278429040003</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09215201492423787</v>
+        <v>0.09253159885864069</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>252</v>
@@ -6242,19 +6242,19 @@
         <v>274165</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>242407</v>
+        <v>242661</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>307973</v>
+        <v>308375</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0774754943763185</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06850104746771289</v>
+        <v>0.06857280457093129</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08702901771464081</v>
+        <v>0.08714270950486862</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>507</v>
@@ -6263,19 +6263,19 @@
         <v>552742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>505771</v>
+        <v>507483</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>602662</v>
+        <v>600426</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07978172802176216</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07300206866104694</v>
+        <v>0.07324910829615139</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08698708071809727</v>
+        <v>0.08666443775049996</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3110861</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3077094</v>
+        <v>3075807</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3143516</v>
+        <v>3144066</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9178104521888029</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9078479850757621</v>
+        <v>0.9074684011413594</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9274448690824172</v>
+        <v>0.9276072157095999</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3081</v>
@@ -6313,19 +6313,19 @@
         <v>3264572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3230764</v>
+        <v>3230362</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3296330</v>
+        <v>3296076</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9225245056236815</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9129709822853592</v>
+        <v>0.9128572904951313</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9314989525322872</v>
+        <v>0.9314271954290687</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6053</v>
@@ -6334,19 +6334,19 @@
         <v>6375433</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6325513</v>
+        <v>6327749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6422404</v>
+        <v>6420692</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9202182719782378</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9130129192819026</v>
+        <v>0.9133355622494999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.926997931338953</v>
+        <v>0.9267508917038481</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>44530</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26464</v>
+        <v>26588</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69379</v>
+        <v>71290</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1091971999951966</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06489589029500148</v>
+        <v>0.06519949992201264</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1701338826214927</v>
+        <v>0.1748201440472576</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -6702,19 +6702,19 @@
         <v>30518</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17385</v>
+        <v>17911</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46261</v>
+        <v>48598</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08418594131135138</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04795837872208794</v>
+        <v>0.04940912781045238</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1276111022556209</v>
+        <v>0.1340598501716555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -6723,19 +6723,19 @@
         <v>75048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50877</v>
+        <v>53289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103679</v>
+        <v>104868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09742669306740774</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06604777833986929</v>
+        <v>0.0691791648252725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1345941243067508</v>
+        <v>0.1361386021297219</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>363263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>338414</v>
+        <v>336503</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>381329</v>
+        <v>381205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8908028000048035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8298661173785072</v>
+        <v>0.8251798559527423</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9351041097049986</v>
+        <v>0.9348005000779873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -6773,19 +6773,19 @@
         <v>331994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>316251</v>
+        <v>313914</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345127</v>
+        <v>344601</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9158140586886486</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8723888977443792</v>
+        <v>0.8659401498283444</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9520416212779121</v>
+        <v>0.9505908721895479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -6794,19 +6794,19 @@
         <v>695257</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>666626</v>
+        <v>665437</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>719428</v>
+        <v>717016</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9025733069325923</v>
+        <v>0.9025733069325922</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8654058756932492</v>
+        <v>0.863861397870278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9339522216601306</v>
+        <v>0.9308208351747275</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>42923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27793</v>
+        <v>27219</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61110</v>
+        <v>61500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09000567363294272</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05827961991252831</v>
+        <v>0.05707636874503078</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1281430944558659</v>
+        <v>0.1289614482102478</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -6919,19 +6919,19 @@
         <v>74061</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60380</v>
+        <v>59029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92964</v>
+        <v>91752</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1479239939809361</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1205989122907862</v>
+        <v>0.1179017874159712</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1856807513278119</v>
+        <v>0.1832590063142487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>93</v>
@@ -6940,19 +6940,19 @@
         <v>116983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>97200</v>
+        <v>96709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>142130</v>
+        <v>145957</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.11966918306361</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0994319357559799</v>
+        <v>0.09892895172727222</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.145392853107431</v>
+        <v>0.149307903252962</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>433967</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>415780</v>
+        <v>415390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>449097</v>
+        <v>449671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9099943263670572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.871856905544134</v>
+        <v>0.8710385517897521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9417203800874717</v>
+        <v>0.9429236312549693</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>392</v>
@@ -6990,19 +6990,19 @@
         <v>426605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>407702</v>
+        <v>408914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>440286</v>
+        <v>441637</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8520760060190639</v>
+        <v>0.8520760060190637</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8143192486721881</v>
+        <v>0.8167409936857511</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8794010877092139</v>
+        <v>0.8820982125840287</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>669</v>
@@ -7011,19 +7011,19 @@
         <v>860574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>835427</v>
+        <v>831600</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880357</v>
+        <v>880848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.88033081693639</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.854607146892569</v>
+        <v>0.8506920967470381</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.90056806424402</v>
+        <v>0.9010710482727277</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>97312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78530</v>
+        <v>79132</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117112</v>
+        <v>119775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1567426003733848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.126490629839583</v>
+        <v>0.1274608025080865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1886360954033142</v>
+        <v>0.1929250153549088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -7136,19 +7136,19 @@
         <v>86716</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73790</v>
+        <v>72017</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102156</v>
+        <v>102305</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.139148499700763</v>
+        <v>0.1391484997007629</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1184064794755283</v>
+        <v>0.1155612761882257</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1639233504819251</v>
+        <v>0.1641619247508379</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>202</v>
@@ -7157,19 +7157,19 @@
         <v>184028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161366</v>
+        <v>161878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209147</v>
+        <v>210938</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1479288911550939</v>
+        <v>0.1479288911550938</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.129712623886229</v>
+        <v>0.1301243709076761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1681207703982444</v>
+        <v>0.1695602521118377</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>523525</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503725</v>
+        <v>501062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542307</v>
+        <v>541705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8432573996266153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8113639045966858</v>
+        <v>0.8070749846450913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8735093701604171</v>
+        <v>0.8725391974919136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>727</v>
@@ -7207,19 +7207,19 @@
         <v>536477</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>521037</v>
+        <v>520888</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>549403</v>
+        <v>551176</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8608515002992371</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8360766495180747</v>
+        <v>0.835838075249162</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8815935205244717</v>
+        <v>0.884438723811774</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1192</v>
@@ -7228,19 +7228,19 @@
         <v>1060001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1034882</v>
+        <v>1033091</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1082663</v>
+        <v>1082151</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8520711088449061</v>
+        <v>0.852071108844906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8318792296017551</v>
+        <v>0.8304397478881616</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8702873761137709</v>
+        <v>0.8698756290923236</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>120228</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99426</v>
+        <v>102045</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>142044</v>
+        <v>141839</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1716024446043391</v>
+        <v>0.171602444604339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1419117509947706</v>
+        <v>0.1456508466661891</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2027406198790159</v>
+        <v>0.2024484486853043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>186</v>
@@ -7353,19 +7353,19 @@
         <v>122809</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>106441</v>
+        <v>107799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139844</v>
+        <v>141345</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1666597233804508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1444464413428486</v>
+        <v>0.1462895311865093</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1897771906810179</v>
+        <v>0.1918134284893647</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -7374,19 +7374,19 @@
         <v>243037</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>218049</v>
+        <v>218068</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269204</v>
+        <v>270647</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1690687298422771</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1516858162914134</v>
+        <v>0.1516988886613039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1872715222746202</v>
+        <v>0.1882755296976653</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>580389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>558573</v>
+        <v>558778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>601191</v>
+        <v>598572</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.828397555395661</v>
+        <v>0.8283975553956608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7972593801209841</v>
+        <v>0.7975515513146957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8580882490052295</v>
+        <v>0.8543491533338109</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>955</v>
@@ -7424,19 +7424,19 @@
         <v>614077</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>597042</v>
+        <v>595541</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>630445</v>
+        <v>629087</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8333402766195491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8102228093189821</v>
+        <v>0.8081865715106352</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8555535586571513</v>
+        <v>0.8537104688134906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1509</v>
@@ -7445,19 +7445,19 @@
         <v>1194467</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1168300</v>
+        <v>1166857</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1219455</v>
+        <v>1219436</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8309312701577228</v>
+        <v>0.8309312701577229</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8127284777253798</v>
+        <v>0.8117244703023347</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.848314183708587</v>
+        <v>0.8483011113386961</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>85783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69674</v>
+        <v>69416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103210</v>
+        <v>102183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1407789598370552</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.114342037267665</v>
+        <v>0.1139192887160456</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1693781762952125</v>
+        <v>0.1676931957746828</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -7570,19 +7570,19 @@
         <v>93375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80663</v>
+        <v>79560</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109452</v>
+        <v>106949</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1535443650616004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1326397966073868</v>
+        <v>0.1308271108113347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1799804282751606</v>
+        <v>0.1758641966332948</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -7591,19 +7591,19 @@
         <v>179158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>159541</v>
+        <v>157350</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>203238</v>
+        <v>200402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.147155299189721</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1310421028978798</v>
+        <v>0.1292426491432788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1669338066700239</v>
+        <v>0.1646038558045979</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>523563</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>506136</v>
+        <v>507163</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>539672</v>
+        <v>539930</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8592210401629446</v>
+        <v>0.8592210401629448</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8306218237047873</v>
+        <v>0.8323068042253171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8856579627323348</v>
+        <v>0.886080711283954</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>851</v>
@@ -7641,19 +7641,19 @@
         <v>514758</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>498681</v>
+        <v>501184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>527470</v>
+        <v>528573</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8464556349383996</v>
+        <v>0.8464556349383999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8200195717248395</v>
+        <v>0.8241358033667052</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8673602033926132</v>
+        <v>0.8691728891886654</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1423</v>
@@ -7662,19 +7662,19 @@
         <v>1038321</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1014241</v>
+        <v>1017077</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1057938</v>
+        <v>1060129</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8528447008102792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8330661933299762</v>
+        <v>0.835396144195402</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8689578971021203</v>
+        <v>0.870757350856721</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>58188</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46573</v>
+        <v>47261</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71002</v>
+        <v>71877</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1429398979358315</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1144067440594973</v>
+        <v>0.1160981058343151</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1744185121105213</v>
+        <v>0.1765679132867545</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>98</v>
@@ -7787,19 +7787,19 @@
         <v>53360</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44305</v>
+        <v>43830</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64428</v>
+        <v>63956</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1215041431601313</v>
+        <v>0.1215041431601312</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1008843041023873</v>
+        <v>0.09980367228214142</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1467044019593983</v>
+        <v>0.1456298261088328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>176</v>
@@ -7808,19 +7808,19 @@
         <v>111548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96477</v>
+        <v>95972</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>127770</v>
+        <v>127097</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1318156389994938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1140062513437589</v>
+        <v>0.1134088784808367</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1509843620905741</v>
+        <v>0.1501897746380761</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>348892</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>336078</v>
+        <v>335203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>360507</v>
+        <v>359819</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8570601020641684</v>
+        <v>0.8570601020641686</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8255814878894788</v>
+        <v>0.8234320867132455</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8855932559405026</v>
+        <v>0.8839018941656849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>729</v>
@@ -7858,19 +7858,19 @@
         <v>385806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>374738</v>
+        <v>375210</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>394861</v>
+        <v>395336</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8784958568398687</v>
+        <v>0.8784958568398686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8532955980406015</v>
+        <v>0.8543701738911671</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8991156958976123</v>
+        <v>0.900196327717857</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1221</v>
@@ -7879,19 +7879,19 @@
         <v>734698</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>718476</v>
+        <v>719149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>749769</v>
+        <v>750274</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8681843610005061</v>
+        <v>0.8681843610005062</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8490156379094259</v>
+        <v>0.8498102253619239</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.885993748656241</v>
+        <v>0.8865911215191632</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>27147</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20226</v>
+        <v>18633</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36337</v>
+        <v>35182</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08751395148943664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06520242316211255</v>
+        <v>0.06006835410550344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1171411931824578</v>
+        <v>0.1134165009859032</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -8004,19 +8004,19 @@
         <v>32986</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>25190</v>
+        <v>25118</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41166</v>
+        <v>41713</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07099796825519505</v>
+        <v>0.07099796825519504</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05421700214778204</v>
+        <v>0.05406368882126917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08860442807735726</v>
+        <v>0.08978088973804851</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -8025,19 +8025,19 @@
         <v>60133</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48447</v>
+        <v>48920</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73048</v>
+        <v>72599</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07761023265642657</v>
+        <v>0.07761023265642655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06252808639356469</v>
+        <v>0.06313779596609476</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09427929396319143</v>
+        <v>0.09369967075235604</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>283051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>273861</v>
+        <v>275016</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>289972</v>
+        <v>291565</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9124860485105633</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8828588068175427</v>
+        <v>0.8865834990140969</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9347975768378878</v>
+        <v>0.9399316458944966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>823</v>
@@ -8075,19 +8075,19 @@
         <v>431623</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>423443</v>
+        <v>422896</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>439419</v>
+        <v>439491</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.929002031744805</v>
+        <v>0.9290020317448049</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9113955719226429</v>
+        <v>0.9102191102619516</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9457829978522181</v>
+        <v>0.945936311178731</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1239</v>
@@ -8096,19 +8096,19 @@
         <v>714674</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>701759</v>
+        <v>702208</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>726360</v>
+        <v>725887</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9223897673435735</v>
+        <v>0.9223897673435734</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9057207060368087</v>
+        <v>0.906300329247644</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9374719136064352</v>
+        <v>0.9368622040339053</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>476110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>432468</v>
+        <v>430303</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>520416</v>
+        <v>526097</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.134769816351685</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1224163031950618</v>
+        <v>0.121803620560216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1473112729309723</v>
+        <v>0.1489194647751225</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>697</v>
@@ -8221,19 +8221,19 @@
         <v>493827</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>461433</v>
+        <v>458795</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>532868</v>
+        <v>532434</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1322101441228371</v>
+        <v>0.1322101441228372</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1235373991004885</v>
+        <v>0.122831228840384</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1426623661650209</v>
+        <v>0.1425461444355737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1142</v>
@@ -8242,19 +8242,19 @@
         <v>969937</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>914361</v>
+        <v>916090</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1031999</v>
+        <v>1035740</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1334543382623585</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1258076378444265</v>
+        <v>0.1260455645709052</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1419935557891918</v>
+        <v>0.1425082984409274</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3056652</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3012346</v>
+        <v>3006665</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3100294</v>
+        <v>3102459</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8652301836483149</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8526887270690275</v>
+        <v>0.8510805352248775</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.877583696804938</v>
+        <v>0.8781963794397845</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4668</v>
@@ -8292,19 +8292,19 @@
         <v>3241339</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3202298</v>
+        <v>3202732</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3273733</v>
+        <v>3276371</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8677898558771628</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8573376338349792</v>
+        <v>0.8574538555644263</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8764626008995116</v>
+        <v>0.877168771159616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7599</v>
@@ -8313,19 +8313,19 @@
         <v>6297991</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6235929</v>
+        <v>6232188</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6353567</v>
+        <v>6351838</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8665456617376416</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8580064442108081</v>
+        <v>0.8574917015590726</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8741923621555734</v>
+        <v>0.8739544354290948</v>
       </c>
     </row>
     <row r="27">
